--- a/outputs/BAGHA2.xlsx
+++ b/outputs/BAGHA2.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: Abi is motivated to submit a paper to the ASE 2019 conference. Understanding what the conference is about is a crucial step in determining whether this conference aligns with Abi's research interests and goals. Additionally, Abi's comprehensive information processing style means they would want to gather detailed information about the conference to form a complete understanding before making a submission decision.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to submit a paper to ASE 2019, and understanding what the conference is about is a crucial step in this process. Abi's comprehensive information processing style means they would want to gather all relevant information about the conference to ensure it aligns with their goals and the content of their paper.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: None of the Above
-Why: The prompt to accept cookies is a common and straightforward action on many websites. The button labeled "Accept &amp; Close" clearly indicates what action needs to be taken. This action does not require any specialized knowledge or high computer self-efficacy, nor does it involve significant risk or complex information processing. Therefore, Abi will likely know what to do at this step.</t>
+Facets: 6. None of the Above
+Why: The cookie consent banner is a common feature on many websites, and the "Accept &amp; Close" button is clearly labeled and located at the bottom of the screen. Abi will likely recognize this as a standard action to proceed with viewing the website content without any issues.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: None of the Above
-Why: After accepting the cookies, Abi will see the full content of the ASE 2019 homepage. The page provides comprehensive information about the conference, including the welcome message, keynotes, distinguished papers, and various tracks and deadlines. Abi will recognize that they have successfully dismissed the cookie prompt and can now focus on gathering information about the conference, which is a step toward their goal of submitting a paper. The page's content is clear and structured in a way that supports Abi's information processing style, allowing them to understand what the conference is about.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After accepting the cookie, Abi will be able to view the full content of the ASE 2019 homepage. The page provides comprehensive information about the conference, including keynotes, distinguished papers, and details about the event. This aligns with Abi's motivation to understand what the conference is about and their comprehensive information processing style. Abi will know they are making progress toward their goal of submitting a paper by gathering all the necessary information about the conference.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style
-Why: Scrolling down aligns with Abi's comprehensive information processing style. The page has a clear structure and visual cues that suggest additional information is available below the fold. Abi will likely recognize that scrolling is a necessary action to uncover more details about the conference. Therefore, the page is good enough for Abi to take this action and continue gathering the information they need.</t>
+Facets: 2. Information Processing Style
+Why: Scrolling down to see more information is a natural action for Abi, especially given their comprehensive information processing style. The page layout suggests that more information is available below the initial view, and scrolling is a common way to access additional content on a webpage. This aligns with Abi's approach to gathering all relevant information before making decisions.</t>
         </is>
       </c>
     </row>
@@ -461,17 +461,17 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: After scrolling down, Abi will find detailed information about the ASE 2019 conference, including keynotes, distinguished papers, the purpose of the conference, various tracks, and important dates. This aligns with Abi's comprehensive information processing style, as it allows them to gather all necessary information about the conference. Additionally, this action directly supports Abi's motivation to understand the conference before submitting a paper. Abi will recognize that they are making progress toward their goal of understanding the conference fully and will feel assured they have done the right thing.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After scrolling down, Abi will find detailed information about the ASE 2019 conference, including keynotes, distinguished papers, and various tracks and workshops. This comprehensive information will help Abi understand what the conference is about, confirming that they are making progress toward their goal of submitting a paper. The detailed content aligns with Abi's motivation to gather all necessary information and their comprehensive information processing style.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The ASE 2019 homepage clearly displays a box labeled "ASE 2019 Tracks" with a list of tracks, including "Research Papers." The labeling and organization of the tracks box provide a clear indication of where to click to find more detailed information about research papers. This aligns with Abi's comprehensive information processing style, as it helps them systematically gather the information they need. Additionally, the action is straightforward and does not require high computer self-efficacy or involve significant risk, making it easy for Abi to take this action.</t>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: While the "Research Papers" link in the ASE 2019 tracks box is visible, Abi might not be confident about clicking it without more explicit guidance or information about what to expect after clicking. Abi's low computer self-efficacy and preference for process-oriented learning mean they might hesitate to click on links without clear instructions or context, fearing they might not find the information they need or might get lost.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Information Processing Style, Computer Self-Efficacy
-Why: After clicking on "Research Papers" in the ASE 2019 tracks box, Abi lands on a page that displays a long list of individuals, which might be overwhelming and does not immediately provide clear or concise information about the research paper submission process. Abi's comprehensive information processing style requires structured and organized information to form a complete understanding. The new page lacks an obvious connection to the research paper submission details Abi is looking for, which might make Abi uncertain if they are making progress toward their goal. Additionally, Abi's low computer self-efficacy might make them doubt whether they clicked the right link if the resulting page does not meet their expectations.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on the "Research Papers" link, Abi lands on a page with a long list of names and titles, which might be overwhelming. The page does not provide a clear, concise summary of what the research papers track entails or how it relates to the conference. Abi, who prefers comprehensive information processing, might find it difficult to extract the necessary information from this page. Additionally, Abi's low computer self-efficacy might make them doubt whether they are on the right page or if they are making progress toward their goal.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Attitude Toward Risk
-Why: The page Abi is currently on is cluttered with a long list of individuals and lacks clear navigation or instructions on how to proceed with finding the "call for papers" section. Abi's low computer self-efficacy might make them feel uncertain about where to click next, especially if the path is not clearly indicated. Additionally, Abi is risk-averse to using unfamiliar technologies or navigating through a confusing interface, which might prevent them from confidently taking the next action. The page does not adequately guide Abi to the "call for papers" link, making it difficult for them to know what to do at this step.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page Abi is currently on is cluttered with a long list of names and titles, which might be overwhelming and confusing. The "Call for Papers" link is not prominently highlighted or explained, which might make Abi unsure about clicking it. Given Abi's low computer self-efficacy and preference for clear, guided instructions, they might hesitate to click on the link without more explicit guidance or context about what to expect after clicking.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: After clicking on "Call for Papers," Abi lands on a page that clearly outlines the call for papers, including the topics of interest, submission guidelines, and important dates. This page provides comprehensive and detailed information, which aligns with Abi's information processing style. The structured layout and clear headings help Abi recognize that they are making progress toward their goal of understanding the conference and its requirements for paper submission. Abi will feel confident that they did the right thing and have access to all the necessary information.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on the "Call for Papers" link, Abi lands on a page that provides detailed and comprehensive information about the call for papers, including topics of interest, submission guidelines, and important dates. This aligns with Abi's motivation to gather all necessary information about the conference and their comprehensive information processing style. Abi will know they are making progress toward their goal of submitting a paper, as the page provides all the relevant details they need.</t>
         </is>
       </c>
     </row>
